--- a/play.xlsx
+++ b/play.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -43,22 +43,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <color rgb="61eb34"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color rgb="d10808"/>
+      <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <bgColor/>
@@ -71,12 +66,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFb4c4de"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE9E9E9"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,31 +108,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="000000"/>
       </bottom>
       <diagonal/>
@@ -155,20 +141,17 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,90 +485,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" ht="40" customHeight="1">
       <c r="A1" s="3" t="str">
-        <v>Id</v>
+        <v>Table 1</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>Name</v>
-      </c>
-      <c r="C1" s="3" t="str">
-        <v>User in Org 1</v>
+        <v/>
       </c>
       <c r="D1" s="3" t="str">
-        <v>User in Org 2</v>
+        <v>Table 2</v>
       </c>
       <c r="E1" s="3" t="str">
-        <v>User in Org 3</v>
+        <v/>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="4" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <v>Id</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <v>Name</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="5" t="str">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B3" s="5" t="str">
         <v>John</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <v>YES</v>
-      </c>
-      <c r="D2" s="6" t="str">
-        <v>NO</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="str">
+      <c r="D3" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <v>John</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="5" t="str">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B4" s="5" t="str">
         <v>Jane</v>
       </c>
-      <c r="C3" s="5" t="str">
-        <v>YES</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <v>YES</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <v>NO</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="4" t="str">
+      <c r="D4" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <v>Jane</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="5" t="str">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B5" s="5" t="str">
         <v>Bob</v>
       </c>
-      <c r="C4" s="5" t="str">
-        <v>YES</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <v>YES</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <v>YES</v>
+      <c r="D5" s="5" t="str">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <v>Bob</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="3" t="str">
+        <v>Table 3</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <v/>
+      </c>
+      <c r="D7" s="3" t="str">
+        <v>Table 4</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="4" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>Id</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>Name</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v>John</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <v>John</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <v>Jane</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <v>Jane</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
   </ignoredErrors>
 </worksheet>
 </file>